--- a/biology/Médecine/Ministère_de_la_Santé_(Danemark)/Ministère_de_la_Santé_(Danemark).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Danemark)/Ministère_de_la_Santé_(Danemark).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Danemark)</t>
+          <t>Ministère_de_la_Santé_(Danemark)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministère de la Santé est un ministère danois qui supervise la politique sanitaire du pays. Il est dirigé par Sophie Løhde depuis le 15 décembre 2022.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Danemark)</t>
+          <t>Ministère_de_la_Santé_(Danemark)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 2001 et 2007 puis entre 2010 et 2011, le ministère de la Santé est rassemblé avec celui de l'Intérieur pour former le « ministère de l'Intérieur et de la Santé ». Entre 2009 et 2010, avec les portefeuilles de l'Intérieur et des Affaires sociales, il forme le « ministère du Bien-être social » (en plus de celui de l'Égalité des chances).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Danemark)</t>
+          <t>Ministère_de_la_Santé_(Danemark)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Danemark)</t>
+          <t>Ministère_de_la_Santé_(Danemark)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Danemark)</t>
+          <t>Ministère_de_la_Santé_(Danemark)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,6 +614,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -603,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Danemark)</t>
+          <t>Ministère_de_la_Santé_(Danemark)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -621,7 +641,9 @@
           <t>Liste des ministres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
